--- a/Docs/BurnDown.xlsx
+++ b/Docs/BurnDown.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haral\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haral\Documents\GitHub\H1PD021123_Grp1_ERP\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C43304F-183F-4B32-9F2D-5BE55638FED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B9FE28-A816-4F68-9AE8-6B1AD841EADF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D641E094-DAC4-49DC-BC8B-5218FA1821D9}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="79">
   <si>
     <t>Date</t>
   </si>
@@ -675,19 +675,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -702,46 +702,46 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -802,85 +802,85 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -902,13 +902,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="16" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5358,7 +5357,7 @@
   <dimension ref="A1:AK195"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5851,7 +5850,9 @@
       <c r="I10" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="J10" s="64"/>
+      <c r="J10" s="64" t="s">
+        <v>23</v>
+      </c>
       <c r="K10" s="45"/>
       <c r="L10" s="87" t="s">
         <v>66</v>
@@ -5904,7 +5905,9 @@
       <c r="I11" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="J11" s="61"/>
+      <c r="J11" s="61" t="s">
+        <v>72</v>
+      </c>
       <c r="K11" s="45"/>
       <c r="L11" s="87" t="s">
         <v>67</v>
@@ -5988,7 +5991,7 @@
       <c r="I13" s="60"/>
       <c r="J13" s="61"/>
       <c r="K13" s="45"/>
-      <c r="L13" s="90" t="s">
+      <c r="L13" s="88" t="s">
         <v>75</v>
       </c>
       <c r="M13" s="45"/>
@@ -7034,7 +7037,7 @@
       <c r="I38" s="60"/>
       <c r="J38" s="61"/>
       <c r="K38" s="45"/>
-      <c r="L38" s="90" t="s">
+      <c r="L38" s="88" t="s">
         <v>77</v>
       </c>
       <c r="M38" s="45"/>
@@ -8302,7 +8305,7 @@
       <c r="I69" s="60"/>
       <c r="J69" s="61"/>
       <c r="K69" s="45"/>
-      <c r="L69" s="90" t="s">
+      <c r="L69" s="88" t="s">
         <v>78</v>
       </c>
       <c r="M69" s="45"/>
@@ -9566,7 +9569,7 @@
       <c r="I100" s="60"/>
       <c r="J100" s="61"/>
       <c r="K100" s="45"/>
-      <c r="L100" s="90" t="s">
+      <c r="L100" s="88" t="s">
         <v>78</v>
       </c>
       <c r="M100" s="45"/>

--- a/Docs/BurnDown.xlsx
+++ b/Docs/BurnDown.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haral\Documents\GitHub\H1PD021123_Grp1_ERP\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B9FE28-A816-4F68-9AE8-6B1AD841EADF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73AF7CEB-5930-4C4C-A039-3E30DD0FA675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D641E094-DAC4-49DC-BC8B-5218FA1821D9}"/>
+    <workbookView xWindow="5325" yWindow="2430" windowWidth="21600" windowHeight="11385" xr2:uid="{D641E094-DAC4-49DC-BC8B-5218FA1821D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="83">
   <si>
     <t>Date</t>
   </si>
@@ -276,6 +276,18 @@
   </si>
   <si>
     <t>10 Task</t>
+  </si>
+  <si>
+    <t>Mar - 27/3</t>
+  </si>
+  <si>
+    <t>Har - 27/3</t>
+  </si>
+  <si>
+    <t>Seb - 27/3</t>
+  </si>
+  <si>
+    <t>Nic - 27/3</t>
   </si>
 </sst>
 </file>
@@ -5356,8 +5368,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF0B712E-09C2-44DE-B884-3CC21268FBEE}">
   <dimension ref="A1:AK195"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="81" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6907,9 +6919,15 @@
       <c r="D35" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="E35" s="46"/>
-      <c r="F35" s="47"/>
-      <c r="G35" s="48"/>
+      <c r="E35" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="F35" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="G35" s="48" t="s">
+        <v>37</v>
+      </c>
       <c r="H35" s="56"/>
       <c r="I35" s="57"/>
       <c r="J35" s="58"/>
@@ -6946,9 +6964,15 @@
       <c r="B36" s="16"/>
       <c r="C36" s="14"/>
       <c r="D36" s="17"/>
-      <c r="E36" s="49"/>
-      <c r="F36" s="50"/>
-      <c r="G36" s="51"/>
+      <c r="E36" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="F36" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="G36" s="51" t="s">
+        <v>82</v>
+      </c>
       <c r="H36" s="59"/>
       <c r="I36" s="60"/>
       <c r="J36" s="61"/>
@@ -6991,7 +7015,9 @@
       <c r="D37" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="E37" s="52"/>
+      <c r="E37" s="52" t="s">
+        <v>33</v>
+      </c>
       <c r="F37" s="47"/>
       <c r="G37" s="48"/>
       <c r="H37" s="62"/>
@@ -7030,7 +7056,9 @@
       <c r="B38" s="16"/>
       <c r="C38" s="14"/>
       <c r="D38" s="17"/>
-      <c r="E38" s="49"/>
+      <c r="E38" s="49" t="s">
+        <v>79</v>
+      </c>
       <c r="F38" s="50"/>
       <c r="G38" s="51"/>
       <c r="H38" s="59"/>

--- a/Docs/BurnDown.xlsx
+++ b/Docs/BurnDown.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haral\Documents\GitHub\H1PD021123_Grp1_ERP\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73AF7CEB-5930-4C4C-A039-3E30DD0FA675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85BD215B-0044-4596-B7E0-7F2CA8483CEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5325" yWindow="2430" windowWidth="21600" windowHeight="11385" xr2:uid="{D641E094-DAC4-49DC-BC8B-5218FA1821D9}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="87">
   <si>
     <t>Date</t>
   </si>
@@ -288,6 +288,18 @@
   </si>
   <si>
     <t>Nic - 27/3</t>
+  </si>
+  <si>
+    <t>Seb - 28/3</t>
+  </si>
+  <si>
+    <t>K1</t>
+  </si>
+  <si>
+    <t>Har - 28/3</t>
+  </si>
+  <si>
+    <t>har - 28/3</t>
   </si>
 </sst>
 </file>
@@ -5368,8 +5380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF0B712E-09C2-44DE-B884-3CC21268FBEE}">
   <dimension ref="A1:AK195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="81" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="81" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6910,12 +6922,8 @@
     </row>
     <row r="35" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A35" s="45"/>
-      <c r="B35" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="C35" s="21" t="s">
-        <v>32</v>
-      </c>
+      <c r="B35" s="20"/>
+      <c r="C35" s="21"/>
       <c r="D35" s="22" t="s">
         <v>33</v>
       </c>
@@ -6928,9 +6936,15 @@
       <c r="G35" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="H35" s="56"/>
-      <c r="I35" s="57"/>
-      <c r="J35" s="58"/>
+      <c r="H35" s="56" t="s">
+        <v>31</v>
+      </c>
+      <c r="I35" s="57" t="s">
+        <v>84</v>
+      </c>
+      <c r="J35" s="58" t="s">
+        <v>35</v>
+      </c>
       <c r="K35" s="45"/>
       <c r="L35" s="45"/>
       <c r="M35" s="45"/>
@@ -6973,9 +6987,15 @@
       <c r="G36" s="51" t="s">
         <v>82</v>
       </c>
-      <c r="H36" s="59"/>
-      <c r="I36" s="60"/>
-      <c r="J36" s="61"/>
+      <c r="H36" s="59" t="s">
+        <v>83</v>
+      </c>
+      <c r="I36" s="60" t="s">
+        <v>85</v>
+      </c>
+      <c r="J36" s="61" t="s">
+        <v>80</v>
+      </c>
       <c r="K36" s="45"/>
       <c r="L36" s="45"/>
       <c r="M36" s="45"/>
@@ -7009,17 +7029,19 @@
       <c r="B37" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C37" s="12" t="s">
-        <v>35</v>
-      </c>
+      <c r="C37" s="12"/>
       <c r="D37" s="15" t="s">
         <v>36</v>
       </c>
       <c r="E37" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="F37" s="47"/>
-      <c r="G37" s="48"/>
+      <c r="F37" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="G37" s="48" t="s">
+        <v>32</v>
+      </c>
       <c r="H37" s="62"/>
       <c r="I37" s="63"/>
       <c r="J37" s="64"/>
@@ -7059,8 +7081,12 @@
       <c r="E38" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="F38" s="50"/>
-      <c r="G38" s="51"/>
+      <c r="F38" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="G38" s="51" t="s">
+        <v>83</v>
+      </c>
       <c r="H38" s="59"/>
       <c r="I38" s="60"/>
       <c r="J38" s="61"/>
@@ -7096,16 +7122,16 @@
     </row>
     <row r="39" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A39" s="45"/>
-      <c r="B39" s="18" t="s">
-        <v>37</v>
-      </c>
+      <c r="B39" s="18"/>
       <c r="C39" s="12" t="s">
         <v>38</v>
       </c>
       <c r="D39" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E39" s="52"/>
+      <c r="E39" s="52" t="s">
+        <v>36</v>
+      </c>
       <c r="F39" s="47"/>
       <c r="G39" s="48"/>
       <c r="H39" s="62"/>
@@ -7150,7 +7176,9 @@
       <c r="B40" s="16"/>
       <c r="C40" s="14"/>
       <c r="D40" s="17"/>
-      <c r="E40" s="49"/>
+      <c r="E40" s="49" t="s">
+        <v>85</v>
+      </c>
       <c r="F40" s="50"/>
       <c r="G40" s="51"/>
       <c r="H40" s="59"/>

--- a/Docs/BurnDown.xlsx
+++ b/Docs/BurnDown.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haral\Documents\GitHub\H1PD021123_Grp1_ERP\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85BD215B-0044-4596-B7E0-7F2CA8483CEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B53C2A3-ADC3-4ED0-8611-D7DE4A0DE55A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5325" yWindow="2430" windowWidth="21600" windowHeight="11385" xr2:uid="{D641E094-DAC4-49DC-BC8B-5218FA1821D9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D641E094-DAC4-49DC-BC8B-5218FA1821D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="87">
   <si>
     <t>Date</t>
   </si>
@@ -5381,7 +5381,7 @@
   <dimension ref="A1:AK195"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScale="81" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6924,9 +6924,7 @@
       <c r="A35" s="45"/>
       <c r="B35" s="20"/>
       <c r="C35" s="21"/>
-      <c r="D35" s="22" t="s">
-        <v>33</v>
-      </c>
+      <c r="D35" s="22"/>
       <c r="E35" s="46" t="s">
         <v>35</v>
       </c>
@@ -7030,9 +7028,7 @@
         <v>34</v>
       </c>
       <c r="C37" s="12"/>
-      <c r="D37" s="15" t="s">
-        <v>36</v>
-      </c>
+      <c r="D37" s="15"/>
       <c r="E37" s="52" t="s">
         <v>33</v>
       </c>

--- a/Docs/BurnDown.xlsx
+++ b/Docs/BurnDown.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haral\Documents\GitHub\H1PD021123_Grp1_ERP\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B53C2A3-ADC3-4ED0-8611-D7DE4A0DE55A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B9DE0F0-94A0-47D7-9211-A6814DC2E8C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D641E094-DAC4-49DC-BC8B-5218FA1821D9}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="88">
   <si>
     <t>Date</t>
   </si>
@@ -300,6 +300,9 @@
   </si>
   <si>
     <t>har - 28/3</t>
+  </si>
+  <si>
+    <t>Har - 29/3</t>
   </si>
 </sst>
 </file>
@@ -5381,7 +5384,7 @@
   <dimension ref="A1:AK195"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScale="81" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6989,7 +6992,7 @@
         <v>83</v>
       </c>
       <c r="I36" s="60" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J36" s="61" t="s">
         <v>80</v>

--- a/Docs/BurnDown.xlsx
+++ b/Docs/BurnDown.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haral\Documents\GitHub\H1PD021123_Grp1_ERP\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B9DE0F0-94A0-47D7-9211-A6814DC2E8C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC78BED1-0934-4BDB-9DE7-310721F1B3CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D641E094-DAC4-49DC-BC8B-5218FA1821D9}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="88">
   <si>
     <t>Date</t>
   </si>
@@ -299,10 +299,10 @@
     <t>Har - 28/3</t>
   </si>
   <si>
-    <t>har - 28/3</t>
+    <t>Har - 29/3</t>
   </si>
   <si>
-    <t>Har - 29/3</t>
+    <t>Har - 30/3</t>
   </si>
 </sst>
 </file>
@@ -5383,8 +5383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF0B712E-09C2-44DE-B884-3CC21268FBEE}">
   <dimension ref="A1:AK195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="81" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="81" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6992,7 +6992,7 @@
         <v>83</v>
       </c>
       <c r="I36" s="60" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J36" s="61" t="s">
         <v>80</v>
@@ -7041,7 +7041,9 @@
       <c r="G37" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="H37" s="62"/>
+      <c r="H37" s="62" t="s">
+        <v>36</v>
+      </c>
       <c r="I37" s="63"/>
       <c r="J37" s="64"/>
       <c r="K37" s="45"/>
@@ -7081,12 +7083,14 @@
         <v>79</v>
       </c>
       <c r="F38" s="50" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G38" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="H38" s="59"/>
+      <c r="H38" s="59" t="s">
+        <v>87</v>
+      </c>
       <c r="I38" s="60"/>
       <c r="J38" s="61"/>
       <c r="K38" s="45"/>

--- a/Docs/BurnDown.xlsx
+++ b/Docs/BurnDown.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haral\Documents\GitHub\H1PD021123_Grp1_ERP\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC78BED1-0934-4BDB-9DE7-310721F1B3CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16438103-EC04-4E52-9C4F-74DD543A25E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D641E094-DAC4-49DC-BC8B-5218FA1821D9}"/>
+    <workbookView xWindow="1350" yWindow="-15870" windowWidth="25440" windowHeight="15390" xr2:uid="{D641E094-DAC4-49DC-BC8B-5218FA1821D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="91">
   <si>
     <t>Date</t>
   </si>
@@ -303,6 +303,15 @@
   </si>
   <si>
     <t>Har - 30/3</t>
+  </si>
+  <si>
+    <t>Mar - 12/4</t>
+  </si>
+  <si>
+    <t>Nic - 12/4</t>
+  </si>
+  <si>
+    <t>Nic -12/4</t>
   </si>
 </sst>
 </file>
@@ -5384,7 +5393,7 @@
   <dimension ref="A1:AK195"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A18" zoomScale="81" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7027,9 +7036,7 @@
     </row>
     <row r="37" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A37" s="45"/>
-      <c r="B37" s="18" t="s">
-        <v>34</v>
-      </c>
+      <c r="B37" s="18"/>
       <c r="C37" s="12"/>
       <c r="D37" s="15"/>
       <c r="E37" s="52" t="s">
@@ -7044,8 +7051,12 @@
       <c r="H37" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="I37" s="63"/>
-      <c r="J37" s="64"/>
+      <c r="I37" s="63" t="s">
+        <v>33</v>
+      </c>
+      <c r="J37" s="64" t="s">
+        <v>34</v>
+      </c>
       <c r="K37" s="45"/>
       <c r="L37" s="45"/>
       <c r="M37" s="45"/>
@@ -7091,8 +7102,12 @@
       <c r="H38" s="59" t="s">
         <v>87</v>
       </c>
-      <c r="I38" s="60"/>
-      <c r="J38" s="61"/>
+      <c r="I38" s="60" t="s">
+        <v>88</v>
+      </c>
+      <c r="J38" s="61" t="s">
+        <v>88</v>
+      </c>
       <c r="K38" s="45"/>
       <c r="L38" s="88" t="s">
         <v>77</v>
@@ -7126,19 +7141,23 @@
     <row r="39" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A39" s="45"/>
       <c r="B39" s="18"/>
-      <c r="C39" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D39" s="15" t="s">
-        <v>13</v>
-      </c>
+      <c r="C39" s="12"/>
+      <c r="D39" s="15"/>
       <c r="E39" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="F39" s="47"/>
-      <c r="G39" s="48"/>
-      <c r="H39" s="62"/>
-      <c r="I39" s="63"/>
+      <c r="F39" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="G39" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="H39" s="62" t="s">
+        <v>31</v>
+      </c>
+      <c r="I39" s="63" t="s">
+        <v>37</v>
+      </c>
       <c r="J39" s="64"/>
       <c r="K39" s="45"/>
       <c r="L39" s="4" t="s">
@@ -7182,10 +7201,18 @@
       <c r="E40" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="F40" s="50"/>
-      <c r="G40" s="51"/>
-      <c r="H40" s="59"/>
-      <c r="I40" s="60"/>
+      <c r="F40" s="50" t="s">
+        <v>88</v>
+      </c>
+      <c r="G40" s="51" t="s">
+        <v>90</v>
+      </c>
+      <c r="H40" s="59" t="s">
+        <v>88</v>
+      </c>
+      <c r="I40" s="60" t="s">
+        <v>89</v>
+      </c>
       <c r="J40" s="61"/>
       <c r="K40" s="45"/>
       <c r="L40" s="88">
@@ -7223,7 +7250,9 @@
       <c r="B41" s="18"/>
       <c r="C41" s="12"/>
       <c r="D41" s="15"/>
-      <c r="E41" s="52"/>
+      <c r="E41" s="52" t="s">
+        <v>13</v>
+      </c>
       <c r="F41" s="47"/>
       <c r="G41" s="48"/>
       <c r="H41" s="62"/>
@@ -7265,7 +7294,9 @@
       <c r="B42" s="16"/>
       <c r="C42" s="14"/>
       <c r="D42" s="17"/>
-      <c r="E42" s="49"/>
+      <c r="E42" s="49" t="s">
+        <v>89</v>
+      </c>
       <c r="F42" s="50"/>
       <c r="G42" s="51"/>
       <c r="H42" s="59"/>

--- a/Docs/BurnDown.xlsx
+++ b/Docs/BurnDown.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haral\Documents\GitHub\H1PD021123_Grp1_ERP\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16438103-EC04-4E52-9C4F-74DD543A25E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F9B791-09D4-4740-8E5A-251DEE059A38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1350" yWindow="-15870" windowWidth="25440" windowHeight="15390" xr2:uid="{D641E094-DAC4-49DC-BC8B-5218FA1821D9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D641E094-DAC4-49DC-BC8B-5218FA1821D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="91">
   <si>
     <t>Date</t>
   </si>
@@ -1642,6 +1642,9 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5392,8 +5395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF0B712E-09C2-44DE-B884-3CC21268FBEE}">
   <dimension ref="A1:AK195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="81" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="81" workbookViewId="0">
+      <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6946,9 +6949,7 @@
       <c r="G35" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="H35" s="56" t="s">
-        <v>31</v>
-      </c>
+      <c r="H35" s="56"/>
       <c r="I35" s="57" t="s">
         <v>84</v>
       </c>
@@ -6997,9 +6998,7 @@
       <c r="G36" s="51" t="s">
         <v>82</v>
       </c>
-      <c r="H36" s="59" t="s">
-        <v>83</v>
-      </c>
+      <c r="H36" s="59"/>
       <c r="I36" s="60" t="s">
         <v>86</v>
       </c>
@@ -7220,6 +7219,9 @@
       </c>
       <c r="M40" s="4">
         <v>7</v>
+      </c>
+      <c r="N40" s="4">
+        <v>3</v>
       </c>
       <c r="O40" s="45"/>
       <c r="P40" s="45"/>

--- a/Docs/BurnDown.xlsx
+++ b/Docs/BurnDown.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haral\Documents\GitHub\H1PD021123_Grp1_ERP\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC78BED1-0934-4BDB-9DE7-310721F1B3CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F9B791-09D4-4740-8E5A-251DEE059A38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D641E094-DAC4-49DC-BC8B-5218FA1821D9}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="91">
   <si>
     <t>Date</t>
   </si>
@@ -303,6 +303,15 @@
   </si>
   <si>
     <t>Har - 30/3</t>
+  </si>
+  <si>
+    <t>Mar - 12/4</t>
+  </si>
+  <si>
+    <t>Nic - 12/4</t>
+  </si>
+  <si>
+    <t>Nic -12/4</t>
   </si>
 </sst>
 </file>
@@ -1633,6 +1642,9 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5383,8 +5395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF0B712E-09C2-44DE-B884-3CC21268FBEE}">
   <dimension ref="A1:AK195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="81" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="81" workbookViewId="0">
+      <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6937,9 +6949,7 @@
       <c r="G35" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="H35" s="56" t="s">
-        <v>31</v>
-      </c>
+      <c r="H35" s="56"/>
       <c r="I35" s="57" t="s">
         <v>84</v>
       </c>
@@ -6988,9 +6998,7 @@
       <c r="G36" s="51" t="s">
         <v>82</v>
       </c>
-      <c r="H36" s="59" t="s">
-        <v>83</v>
-      </c>
+      <c r="H36" s="59"/>
       <c r="I36" s="60" t="s">
         <v>86</v>
       </c>
@@ -7027,9 +7035,7 @@
     </row>
     <row r="37" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A37" s="45"/>
-      <c r="B37" s="18" t="s">
-        <v>34</v>
-      </c>
+      <c r="B37" s="18"/>
       <c r="C37" s="12"/>
       <c r="D37" s="15"/>
       <c r="E37" s="52" t="s">
@@ -7044,8 +7050,12 @@
       <c r="H37" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="I37" s="63"/>
-      <c r="J37" s="64"/>
+      <c r="I37" s="63" t="s">
+        <v>33</v>
+      </c>
+      <c r="J37" s="64" t="s">
+        <v>34</v>
+      </c>
       <c r="K37" s="45"/>
       <c r="L37" s="45"/>
       <c r="M37" s="45"/>
@@ -7091,8 +7101,12 @@
       <c r="H38" s="59" t="s">
         <v>87</v>
       </c>
-      <c r="I38" s="60"/>
-      <c r="J38" s="61"/>
+      <c r="I38" s="60" t="s">
+        <v>88</v>
+      </c>
+      <c r="J38" s="61" t="s">
+        <v>88</v>
+      </c>
       <c r="K38" s="45"/>
       <c r="L38" s="88" t="s">
         <v>77</v>
@@ -7126,19 +7140,23 @@
     <row r="39" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A39" s="45"/>
       <c r="B39" s="18"/>
-      <c r="C39" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D39" s="15" t="s">
-        <v>13</v>
-      </c>
+      <c r="C39" s="12"/>
+      <c r="D39" s="15"/>
       <c r="E39" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="F39" s="47"/>
-      <c r="G39" s="48"/>
-      <c r="H39" s="62"/>
-      <c r="I39" s="63"/>
+      <c r="F39" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="G39" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="H39" s="62" t="s">
+        <v>31</v>
+      </c>
+      <c r="I39" s="63" t="s">
+        <v>37</v>
+      </c>
       <c r="J39" s="64"/>
       <c r="K39" s="45"/>
       <c r="L39" s="4" t="s">
@@ -7182,10 +7200,18 @@
       <c r="E40" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="F40" s="50"/>
-      <c r="G40" s="51"/>
-      <c r="H40" s="59"/>
-      <c r="I40" s="60"/>
+      <c r="F40" s="50" t="s">
+        <v>88</v>
+      </c>
+      <c r="G40" s="51" t="s">
+        <v>90</v>
+      </c>
+      <c r="H40" s="59" t="s">
+        <v>88</v>
+      </c>
+      <c r="I40" s="60" t="s">
+        <v>89</v>
+      </c>
       <c r="J40" s="61"/>
       <c r="K40" s="45"/>
       <c r="L40" s="88">
@@ -7193,6 +7219,9 @@
       </c>
       <c r="M40" s="4">
         <v>7</v>
+      </c>
+      <c r="N40" s="4">
+        <v>3</v>
       </c>
       <c r="O40" s="45"/>
       <c r="P40" s="45"/>
@@ -7223,7 +7252,9 @@
       <c r="B41" s="18"/>
       <c r="C41" s="12"/>
       <c r="D41" s="15"/>
-      <c r="E41" s="52"/>
+      <c r="E41" s="52" t="s">
+        <v>13</v>
+      </c>
       <c r="F41" s="47"/>
       <c r="G41" s="48"/>
       <c r="H41" s="62"/>
@@ -7265,7 +7296,9 @@
       <c r="B42" s="16"/>
       <c r="C42" s="14"/>
       <c r="D42" s="17"/>
-      <c r="E42" s="49"/>
+      <c r="E42" s="49" t="s">
+        <v>89</v>
+      </c>
       <c r="F42" s="50"/>
       <c r="G42" s="51"/>
       <c r="H42" s="59"/>

--- a/Docs/BurnDown.xlsx
+++ b/Docs/BurnDown.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haral\Documents\GitHub\H1PD021123_Grp1_ERP\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F9B791-09D4-4740-8E5A-251DEE059A38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04ADE90A-E4FD-4C0F-8890-B8DCBCCCFC13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D641E094-DAC4-49DC-BC8B-5218FA1821D9}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="93">
   <si>
     <t>Date</t>
   </si>
@@ -312,6 +312,12 @@
   </si>
   <si>
     <t>Nic -12/4</t>
+  </si>
+  <si>
+    <t>Nic - 13/4</t>
+  </si>
+  <si>
+    <t>Mar - 13/4</t>
   </si>
 </sst>
 </file>
@@ -1644,6 +1650,9 @@
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5395,8 +5404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF0B712E-09C2-44DE-B884-3CC21268FBEE}">
   <dimension ref="A1:AK195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="81" workbookViewId="0">
-      <selection activeCell="I44" sqref="I44"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="81" workbookViewId="0">
+      <selection activeCell="M52" sqref="M52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6949,7 +6958,9 @@
       <c r="G35" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="H35" s="56"/>
+      <c r="H35" s="56" t="s">
+        <v>32</v>
+      </c>
       <c r="I35" s="57" t="s">
         <v>84</v>
       </c>
@@ -6998,7 +7009,9 @@
       <c r="G36" s="51" t="s">
         <v>82</v>
       </c>
-      <c r="H36" s="59"/>
+      <c r="H36" s="59" t="s">
+        <v>92</v>
+      </c>
       <c r="I36" s="60" t="s">
         <v>86</v>
       </c>
@@ -7157,7 +7170,9 @@
       <c r="I39" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="J39" s="64"/>
+      <c r="J39" s="64" t="s">
+        <v>38</v>
+      </c>
       <c r="K39" s="45"/>
       <c r="L39" s="4" t="s">
         <v>0</v>
@@ -7212,7 +7227,9 @@
       <c r="I40" s="60" t="s">
         <v>89</v>
       </c>
-      <c r="J40" s="61"/>
+      <c r="J40" s="61" t="s">
+        <v>91</v>
+      </c>
       <c r="K40" s="45"/>
       <c r="L40" s="88">
         <v>45028</v>
@@ -7257,7 +7274,9 @@
       </c>
       <c r="F41" s="47"/>
       <c r="G41" s="48"/>
-      <c r="H41" s="62"/>
+      <c r="H41" s="62" t="s">
+        <v>13</v>
+      </c>
       <c r="I41" s="63"/>
       <c r="J41" s="64"/>
       <c r="K41" s="45"/>
@@ -7266,6 +7285,9 @@
       </c>
       <c r="M41" s="4">
         <v>5</v>
+      </c>
+      <c r="N41" s="4">
+        <v>0</v>
       </c>
       <c r="O41" s="45"/>
       <c r="P41" s="45"/>
@@ -7301,7 +7323,9 @@
       </c>
       <c r="F42" s="50"/>
       <c r="G42" s="51"/>
-      <c r="H42" s="59"/>
+      <c r="H42" s="59" t="s">
+        <v>91</v>
+      </c>
       <c r="I42" s="60"/>
       <c r="J42" s="61"/>
       <c r="K42" s="45"/>

--- a/Docs/BurnDown.xlsx
+++ b/Docs/BurnDown.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haral\Documents\GitHub\H1PD021123_Grp1_ERP\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04ADE90A-E4FD-4C0F-8890-B8DCBCCCFC13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D57D147A-8B2E-47D5-9FCB-F57FB1C78C45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D641E094-DAC4-49DC-BC8B-5218FA1821D9}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="105">
   <si>
     <t>Date</t>
   </si>
@@ -319,6 +319,42 @@
   <si>
     <t>Mar - 13/4</t>
   </si>
+  <si>
+    <t>Mar - 17/4</t>
+  </si>
+  <si>
+    <t>Har - 17/4</t>
+  </si>
+  <si>
+    <t>Nic - 17/4</t>
+  </si>
+  <si>
+    <t>Mar - 20/4</t>
+  </si>
+  <si>
+    <t>Mar - 19/4</t>
+  </si>
+  <si>
+    <t>Mar - 18/4</t>
+  </si>
+  <si>
+    <t>Har - 18/4</t>
+  </si>
+  <si>
+    <t>Har - 19/4</t>
+  </si>
+  <si>
+    <t>Har - 20/4</t>
+  </si>
+  <si>
+    <t>Nic - 18/4</t>
+  </si>
+  <si>
+    <t>Nic - 19/4</t>
+  </si>
+  <si>
+    <t>Nic - 20/4</t>
+  </si>
 </sst>
 </file>
 
@@ -398,7 +434,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -713,11 +749,55 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -950,6 +1030,39 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="16" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1218,6 +1331,21 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1652,6 +1780,15 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2093,6 +2230,15 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5404,8 +5550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF0B712E-09C2-44DE-B884-3CC21268FBEE}">
   <dimension ref="A1:AK195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="81" workbookViewId="0">
-      <selection activeCell="M52" sqref="M52"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="81" workbookViewId="0">
+      <selection activeCell="F71" sqref="F71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6274,6 +6420,9 @@
       <c r="M18" s="4">
         <v>4</v>
       </c>
+      <c r="N18" s="4">
+        <v>0</v>
+      </c>
       <c r="O18" s="45"/>
       <c r="P18" s="45"/>
       <c r="Q18" s="45"/>
@@ -6316,6 +6465,9 @@
       <c r="M19" s="4">
         <v>3</v>
       </c>
+      <c r="N19" s="4">
+        <v>0</v>
+      </c>
       <c r="O19" s="45"/>
       <c r="P19" s="45"/>
       <c r="Q19" s="45"/>
@@ -6358,6 +6510,9 @@
       <c r="M20" s="4">
         <v>2</v>
       </c>
+      <c r="N20" s="4">
+        <v>0</v>
+      </c>
       <c r="O20" s="45"/>
       <c r="P20" s="45"/>
       <c r="Q20" s="45"/>
@@ -6400,6 +6555,9 @@
       <c r="M21" s="4">
         <v>1</v>
       </c>
+      <c r="N21" s="4">
+        <v>0</v>
+      </c>
       <c r="O21" s="45"/>
       <c r="P21" s="45"/>
       <c r="Q21" s="45"/>
@@ -6440,6 +6598,9 @@
         <v>45027</v>
       </c>
       <c r="M22" s="4">
+        <v>0</v>
+      </c>
+      <c r="N22" s="4">
         <v>0</v>
       </c>
       <c r="O22" s="45"/>
@@ -7335,6 +7496,9 @@
       <c r="M42" s="4">
         <v>3</v>
       </c>
+      <c r="N42" s="4">
+        <v>0</v>
+      </c>
       <c r="O42" s="45"/>
       <c r="P42" s="45"/>
       <c r="Q42" s="45"/>
@@ -7377,6 +7541,9 @@
       <c r="M43" s="4">
         <v>1</v>
       </c>
+      <c r="N43" s="4">
+        <v>0</v>
+      </c>
       <c r="O43" s="45"/>
       <c r="P43" s="45"/>
       <c r="Q43" s="45"/>
@@ -7417,6 +7584,9 @@
         <v>45036</v>
       </c>
       <c r="M44" s="4">
+        <v>0</v>
+      </c>
+      <c r="N44" s="4">
         <v>0</v>
       </c>
       <c r="O44" s="45"/>
@@ -8291,12 +8461,24 @@
       <c r="D66" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="E66" s="46"/>
-      <c r="F66" s="47"/>
-      <c r="G66" s="48"/>
-      <c r="H66" s="56"/>
-      <c r="I66" s="57"/>
-      <c r="J66" s="58"/>
+      <c r="E66" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="F66" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="G66" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="H66" s="90" t="s">
+        <v>39</v>
+      </c>
+      <c r="I66" s="63" t="s">
+        <v>40</v>
+      </c>
+      <c r="J66" s="64" t="s">
+        <v>41</v>
+      </c>
       <c r="K66" s="45"/>
       <c r="L66" s="45"/>
       <c r="M66" s="45"/>
@@ -8330,12 +8512,24 @@
       <c r="B67" s="16"/>
       <c r="C67" s="14"/>
       <c r="D67" s="17"/>
-      <c r="E67" s="49"/>
-      <c r="F67" s="50"/>
-      <c r="G67" s="51"/>
-      <c r="H67" s="59"/>
-      <c r="I67" s="60"/>
-      <c r="J67" s="61"/>
+      <c r="E67" s="91" t="s">
+        <v>93</v>
+      </c>
+      <c r="F67" s="95" t="s">
+        <v>93</v>
+      </c>
+      <c r="G67" s="93" t="s">
+        <v>93</v>
+      </c>
+      <c r="H67" s="98" t="s">
+        <v>98</v>
+      </c>
+      <c r="I67" s="100" t="s">
+        <v>97</v>
+      </c>
+      <c r="J67" s="96" t="s">
+        <v>96</v>
+      </c>
       <c r="K67" s="45"/>
       <c r="L67" s="45"/>
       <c r="M67" s="45"/>
@@ -8375,12 +8569,24 @@
       <c r="D68" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="E68" s="52"/>
-      <c r="F68" s="47"/>
-      <c r="G68" s="48"/>
-      <c r="H68" s="62"/>
-      <c r="I68" s="63"/>
-      <c r="J68" s="64"/>
+      <c r="E68" s="92" t="s">
+        <v>42</v>
+      </c>
+      <c r="F68" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="G68" s="94" t="s">
+        <v>44</v>
+      </c>
+      <c r="H68" s="99" t="s">
+        <v>42</v>
+      </c>
+      <c r="I68" s="63" t="s">
+        <v>43</v>
+      </c>
+      <c r="J68" s="97" t="s">
+        <v>44</v>
+      </c>
       <c r="K68" s="45"/>
       <c r="L68" s="45"/>
       <c r="M68" s="45"/>
@@ -8414,12 +8620,24 @@
       <c r="B69" s="16"/>
       <c r="C69" s="14"/>
       <c r="D69" s="17"/>
-      <c r="E69" s="49"/>
-      <c r="F69" s="50"/>
-      <c r="G69" s="51"/>
-      <c r="H69" s="59"/>
-      <c r="I69" s="60"/>
-      <c r="J69" s="61"/>
+      <c r="E69" s="91" t="s">
+        <v>94</v>
+      </c>
+      <c r="F69" s="95" t="s">
+        <v>94</v>
+      </c>
+      <c r="G69" s="93" t="s">
+        <v>94</v>
+      </c>
+      <c r="H69" s="98" t="s">
+        <v>99</v>
+      </c>
+      <c r="I69" s="100" t="s">
+        <v>100</v>
+      </c>
+      <c r="J69" s="96" t="s">
+        <v>101</v>
+      </c>
       <c r="K69" s="45"/>
       <c r="L69" s="88" t="s">
         <v>78</v>
@@ -8461,12 +8679,24 @@
       <c r="D70" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="E70" s="52"/>
-      <c r="F70" s="47"/>
-      <c r="G70" s="48"/>
-      <c r="H70" s="62"/>
-      <c r="I70" s="63"/>
-      <c r="J70" s="64"/>
+      <c r="E70" s="92" t="s">
+        <v>45</v>
+      </c>
+      <c r="F70" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="G70" s="94" t="s">
+        <v>47</v>
+      </c>
+      <c r="H70" s="99" t="s">
+        <v>45</v>
+      </c>
+      <c r="I70" s="63" t="s">
+        <v>46</v>
+      </c>
+      <c r="J70" s="97" t="s">
+        <v>47</v>
+      </c>
       <c r="K70" s="45"/>
       <c r="L70" s="4" t="s">
         <v>0</v>
@@ -8506,18 +8736,33 @@
       <c r="B71" s="16"/>
       <c r="C71" s="14"/>
       <c r="D71" s="17"/>
-      <c r="E71" s="49"/>
-      <c r="F71" s="50"/>
-      <c r="G71" s="51"/>
-      <c r="H71" s="59"/>
-      <c r="I71" s="60"/>
-      <c r="J71" s="61"/>
+      <c r="E71" s="91" t="s">
+        <v>95</v>
+      </c>
+      <c r="F71" s="95" t="s">
+        <v>95</v>
+      </c>
+      <c r="G71" s="93" t="s">
+        <v>95</v>
+      </c>
+      <c r="H71" s="98" t="s">
+        <v>102</v>
+      </c>
+      <c r="I71" s="100" t="s">
+        <v>103</v>
+      </c>
+      <c r="J71" s="96" t="s">
+        <v>104</v>
+      </c>
       <c r="K71" s="45"/>
       <c r="L71" s="88">
         <v>45037</v>
       </c>
       <c r="M71" s="4">
         <v>5</v>
+      </c>
+      <c r="N71" s="4">
+        <v>0</v>
       </c>
       <c r="O71" s="45"/>
       <c r="P71" s="45"/>
@@ -8550,10 +8795,14 @@
       </c>
       <c r="C72" s="12"/>
       <c r="D72" s="15"/>
-      <c r="E72" s="52"/>
+      <c r="E72" s="52" t="s">
+        <v>48</v>
+      </c>
       <c r="F72" s="47"/>
       <c r="G72" s="48"/>
-      <c r="H72" s="62"/>
+      <c r="H72" s="62" t="s">
+        <v>48</v>
+      </c>
       <c r="I72" s="63"/>
       <c r="J72" s="64"/>
       <c r="K72" s="45"/>
@@ -8562,6 +8811,9 @@
       </c>
       <c r="M72" s="4">
         <v>2</v>
+      </c>
+      <c r="N72" s="4">
+        <v>0</v>
       </c>
       <c r="O72" s="45"/>
       <c r="P72" s="45"/>
@@ -8592,10 +8844,14 @@
       <c r="B73" s="16"/>
       <c r="C73" s="14"/>
       <c r="D73" s="17"/>
-      <c r="E73" s="49"/>
+      <c r="E73" s="49" t="s">
+        <v>93</v>
+      </c>
       <c r="F73" s="50"/>
       <c r="G73" s="51"/>
-      <c r="H73" s="59"/>
+      <c r="H73" s="59" t="s">
+        <v>96</v>
+      </c>
       <c r="I73" s="60"/>
       <c r="J73" s="61"/>
       <c r="K73" s="45"/>
@@ -8603,6 +8859,9 @@
         <v>45049</v>
       </c>
       <c r="M73" s="4">
+        <v>0</v>
+      </c>
+      <c r="N73" s="4">
         <v>0</v>
       </c>
       <c r="O73" s="45"/>
